--- a/biology/Botanique/Callistemon_rigidus/Callistemon_rigidus.xlsx
+++ b/biology/Botanique/Callistemon_rigidus/Callistemon_rigidus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callistemon rigidus, (dont l’un des noms vernaculaires en anglais est Stiff Bottlebrush, c’est-à-dire le « rince-bouteille rigide »), est  un arbuste de la famille des  myrtacées. Il est endémique de l'État de Nouvelle-Galles du Sud en Australie[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callistemon rigidus, (dont l’un des noms vernaculaires en anglais est Stiff Bottlebrush, c’est-à-dire le « rince-bouteille rigide »), est  un arbuste de la famille des  myrtacées. Il est endémique de l'État de Nouvelle-Galles du Sud en Australie.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbuste à port étalé bas peut atteindre 2 à 3 mètres de hauteur et possède un port raide et érigé[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbuste à port étalé bas peut atteindre 2 à 3 mètres de hauteur et possède un port raide et érigé.
 Les feuilles persistantes ont entre 50 et 70 mm de long et 3 à 4 mm de large.
-Les fleurs, aux étamines rouges pourvues d’anthères foncées apparaissent en été[2].
+Les fleurs, aux étamines rouges pourvues d’anthères foncées apparaissent en été.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce apprécie le plein soleil, les sol légers, pauvres, sans trop de calcaire, pas trop secs à frais. À protéger l'hiver en dessous de −12 °C, peut repartir du pied même si la partie aérienne est brûlée par le froid.
 </t>
@@ -575,9 +591,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite pour la première fois de manière formelle par le botaniste Robert Brown (1773-1858) et publiée dans le catalogue Edwards's Botanical Register en 1820[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite pour la première fois de manière formelle par le botaniste Robert Brown (1773-1858) et publiée dans le catalogue Edwards's Botanical Register en 1820.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Plusieurs cultivars de C. rigidus ont été obtenus, parmi lesquels[3]:
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Plusieurs cultivars de C. rigidus ont été obtenus, parmi lesquels:
 C. rigidus « Crimson Spokes »
 C. rigidus « Manson Bailey »
 C. rigidus « Pendulous »</t>
